--- a/GENERATED/StructureDefinition-PractitioneRolerLP.xlsx
+++ b/GENERATED/StructureDefinition-PractitioneRolerLP.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T16:59:21-03:00</t>
+    <t>2023-01-12T17:57:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
